--- a/test_2.xlsx
+++ b/test_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360" activeTab="2"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
-    <t>q</t>
+    <t>q222</t>
   </si>
   <si>
     <t>qwe</t>
@@ -1003,8 +1003,8 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1119,7 +1119,7 @@
   <sheetPr/>
   <dimension ref="B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/test_2.xlsx
+++ b/test_2.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowHeight="18360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>q222</t>
   </si>
@@ -61,16 +61,10 @@
     <t>qe</t>
   </si>
   <si>
-    <t>eqweqweqe</t>
-  </si>
-  <si>
     <t>qweqweqeq</t>
   </si>
   <si>
     <t>qweqweqeqeee</t>
-  </si>
-  <si>
-    <t>qeqeqeqeq</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +997,7 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1084,27 +1078,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>10</v>
+      <c r="A1">
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
@@ -1117,22 +1116,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>